--- a/GameData/SSTU/Parts/LanderCore/LC-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/LanderCore/LC-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigComp" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="161">
   <si>
     <t>Part</t>
   </si>
@@ -230,9 +230,6 @@
     <t>WTFHeavy</t>
   </si>
   <si>
-    <t>LC3EngCluster</t>
-  </si>
-  <si>
     <t>LC2EngCluster</t>
   </si>
   <si>
@@ -269,21 +266,12 @@
     <t>LC2FL0</t>
   </si>
   <si>
-    <t>LC3FL2</t>
-  </si>
-  <si>
-    <t>LC3FL0</t>
-  </si>
-  <si>
     <t>LC1-FL0-HH</t>
   </si>
   <si>
     <t>LC5FL0</t>
   </si>
   <si>
-    <t>LC5FL3</t>
-  </si>
-  <si>
     <t>LC5FL2</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>tank volume</t>
   </si>
   <si>
-    <t>LC5FL1</t>
-  </si>
-  <si>
     <t>LF</t>
   </si>
   <si>
@@ -401,15 +386,6 @@
     <t>LC5-DESE</t>
   </si>
   <si>
-    <t>LC2CRG</t>
-  </si>
-  <si>
-    <t>LC3CRG</t>
-  </si>
-  <si>
-    <t>LC5CRG</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -453,6 +429,78 @@
   </si>
   <si>
     <t>t/m</t>
+  </si>
+  <si>
+    <t>LC2-FL1</t>
+  </si>
+  <si>
+    <t>LC2-ASCF</t>
+  </si>
+  <si>
+    <t>LC2-FL0</t>
+  </si>
+  <si>
+    <t>LC2-LEG</t>
+  </si>
+  <si>
+    <t>LC2-POD</t>
+  </si>
+  <si>
+    <t>LC3-ASCF</t>
+  </si>
+  <si>
+    <t>LC3-FL2</t>
+  </si>
+  <si>
+    <t>LC3-FL1</t>
+  </si>
+  <si>
+    <t>LC3-FL0</t>
+  </si>
+  <si>
+    <t>LC3-LEG</t>
+  </si>
+  <si>
+    <t>LC3-POD</t>
+  </si>
+  <si>
+    <t>LC5-ASCF</t>
+  </si>
+  <si>
+    <t>LC5-FL2</t>
+  </si>
+  <si>
+    <t>LC5-FL3</t>
+  </si>
+  <si>
+    <t>LC5-FL0</t>
+  </si>
+  <si>
+    <t>LC5-FL1</t>
+  </si>
+  <si>
+    <t>LC5-POD</t>
+  </si>
+  <si>
+    <t>LC2-CRG</t>
+  </si>
+  <si>
+    <t>LC3-CRG</t>
+  </si>
+  <si>
+    <t>LC5-CRG</t>
+  </si>
+  <si>
+    <t>LC5-LEG</t>
+  </si>
+  <si>
+    <t>ActDMass</t>
+  </si>
+  <si>
+    <t>ActFMass</t>
+  </si>
+  <si>
+    <t>ActTMass</t>
   </si>
 </sst>
 </file>
@@ -1127,21 +1175,21 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="46"/>
       <c r="G1" s="44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
       <c r="K1" s="46"/>
       <c r="M1" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N1" s="45"/>
       <c r="O1" s="45"/>
@@ -1150,21 +1198,21 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="22"/>
       <c r="G2" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="22"/>
       <c r="M2" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -1223,58 +1271,58 @@
         <v>20</v>
       </c>
       <c r="B4" s="5">
-        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.1000000000000001</v>
+        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.1000000000000001</v>
+        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E4" s="22">
-        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A4,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.875</v>
+        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.875</v>
+        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K4" s="22">
-        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($G4,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="5">
-        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>4.5</v>
+        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>4.5</v>
+        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="22">
-        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M4,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1282,58 +1330,58 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.3</v>
+        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.3</v>
+        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E5" s="22">
-        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A5,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
-        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.9</v>
+        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.9</v>
+        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
-        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($G5,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="5">
-        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.2</v>
+        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O5" s="5">
-        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.2</v>
+        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P5" s="5">
-        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="22">
-        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M5,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1341,273 +1389,273 @@
         <v>22</v>
       </c>
       <c r="B6" s="5">
-        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.92699999999999994</v>
+        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.19217499999999998</v>
+        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>0.73482499999999995</v>
+        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="22">
-        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A6,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
-        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>2.2233353600000001</v>
+        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.41850030400000005</v>
+        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
-        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>1.8048350559999999</v>
+        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="K6" s="22">
-        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($G6,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" s="5">
-        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>3.2431288400000002</v>
+        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
-        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.65646932600000008</v>
+        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>2.5866595139999999</v>
+        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q6" s="22">
-        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M6,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="5">
-        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E7" s="22">
-        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A7,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="5">
-        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K7" s="22">
-        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G7,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N7" s="5">
-        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.0733744000000001</v>
+        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
-        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.20350615999999999</v>
+        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
-        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>0.86986823999999996</v>
+        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q7" s="22">
-        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M7,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="5">
-        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E8" s="22">
-        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A8,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="5">
-        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K8" s="22">
-        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G8,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N8" s="5">
-        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0.34379176</v>
       </c>
       <c r="O8" s="5">
-        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>9.4068763999999999E-2</v>
       </c>
       <c r="P8" s="5">
-        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0.249722996</v>
       </c>
       <c r="Q8" s="22">
-        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M8,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>9.4068763999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="5">
-        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C9" s="5">
-        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E9" s="22">
-        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A9,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="5">
-        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K9" s="22">
-        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G9,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="5">
-        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="22">
-        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M9,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="5">
-        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E10" s="22">
-        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A10,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="5">
-        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K10" s="22">
-        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G10,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="5">
-        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="22">
-        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M10,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1617,7 +1665,7 @@
       </c>
       <c r="B11" s="17">
         <f>SUM(B4:B10)</f>
-        <v>2.327</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1627,7 +1675,7 @@
       </c>
       <c r="H11" s="17">
         <f>SUM(H4:H10)</f>
-        <v>4.9983353600000004</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1637,7 +1685,7 @@
       </c>
       <c r="N11" s="17">
         <f>SUM(N4:N10)</f>
-        <v>10.360295000000001</v>
+        <v>0.34379176</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1649,7 +1697,7 @@
       </c>
       <c r="B12" s="17">
         <f>SUM(C4:C10)</f>
-        <v>1.5921750000000001</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1659,7 +1707,7 @@
       </c>
       <c r="H12" s="17">
         <f>SUM(I4:I10)</f>
-        <v>3.1935003040000001</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1669,7 +1717,7 @@
       </c>
       <c r="N12" s="17">
         <f>SUM(O4:O10)</f>
-        <v>6.6540442500000001</v>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1681,7 +1729,7 @@
       </c>
       <c r="B13" s="17">
         <f>SUM(D4:D10)</f>
-        <v>0.73482499999999995</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1691,7 +1739,7 @@
       </c>
       <c r="H13" s="17">
         <f>SUM(J4:J10)</f>
-        <v>1.8048350559999999</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1701,7 +1749,7 @@
       </c>
       <c r="N13" s="17">
         <f>SUM(P4:P10)</f>
-        <v>3.7062507499999997</v>
+        <v>0.249722996</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1713,7 +1761,7 @@
       </c>
       <c r="B14" s="17">
         <f>LARGE(E4:E10,1)</f>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1723,7 +1771,7 @@
       </c>
       <c r="H14" s="17">
         <f>LARGE(K4:K10,1)</f>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1733,7 +1781,7 @@
       </c>
       <c r="N14" s="17">
         <f>LARGE(Q4:Q10,1)</f>
-        <v>355</v>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1774,7 +1822,7 @@
       </c>
       <c r="B16" s="17">
         <f>B15+B11</f>
-        <v>2.327</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1784,7 +1832,7 @@
       </c>
       <c r="H16" s="17">
         <f>H15+H11</f>
-        <v>4.9983353600000004</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1794,7 +1842,7 @@
       </c>
       <c r="N16" s="17">
         <f>N15+N11</f>
-        <v>10.360295000000001</v>
+        <v>0.34379176</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -1806,7 +1854,7 @@
       </c>
       <c r="B17" s="17">
         <f>B16-B13</f>
-        <v>1.5921750000000001</v>
+        <v>0</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1816,7 +1864,7 @@
       </c>
       <c r="H17" s="17">
         <f>H16-H13</f>
-        <v>3.1935003040000005</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1826,7 +1874,7 @@
       </c>
       <c r="N17" s="17">
         <f>N16-N13</f>
-        <v>6.654044250000001</v>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1836,9 +1884,9 @@
       <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="17" t="e">
         <f>(B14*9.81)*LN(B16/B17)</f>
-        <v>1321.5541676797911</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1846,9 +1894,9 @@
       <c r="G18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="17" t="e">
         <f>(H14*9.81)*LN(H16/H17)</f>
-        <v>1560.1383101801136</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1858,7 +1906,7 @@
       </c>
       <c r="N18" s="17">
         <f>(N14*9.81)*LN(N16/N17)</f>
-        <v>1541.91950250076</v>
+        <v>1.1959769895726515</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -1868,9 +1916,9 @@
       <c r="A19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="27" t="e">
         <f>B18+0</f>
-        <v>1321.5541676797911</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -1878,9 +1926,9 @@
       <c r="G19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="19" t="e">
         <f>H18+0</f>
-        <v>1560.1383101801136</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1890,7 +1938,7 @@
       </c>
       <c r="N19" s="19">
         <f>N18+0</f>
-        <v>1541.91950250076</v>
+        <v>1.1959769895726515</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -1910,21 +1958,21 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="46"/>
       <c r="G21" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="22"/>
       <c r="M21" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1933,7 +1981,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1987,42 +2035,42 @@
         <v>6</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="5">
-        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>4.1870872400000003</v>
+        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.79806308599999998</v>
+        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>3.3890241539999999</v>
+        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="K23" s="22">
-        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($G23,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N23" s="5">
-        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>5.7895428799999999</v>
+        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
-        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.0384314319999999</v>
+        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P23" s="5">
-        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>4.7511114479999996</v>
+        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M23,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2030,174 +2078,174 @@
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.1000000000000001</v>
+        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C24" s="5">
-        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.1000000000000001</v>
+        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E24" s="22">
-        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A24,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H24" s="5">
-        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0.34379176</v>
       </c>
       <c r="I24" s="5">
-        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>9.4068763999999999E-2</v>
       </c>
       <c r="J24" s="5">
-        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0.249722996</v>
       </c>
       <c r="K24" s="22">
-        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($G24,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" s="5">
-        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>3.6</v>
+        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="5">
-        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>3.6</v>
+        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P24" s="5">
-        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="22">
-        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M24,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="5">
-        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.2</v>
+        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C25" s="5">
-        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.2</v>
+        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D25" s="5">
-        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E25" s="22">
-        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A25,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="5">
-        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.75</v>
+        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.75</v>
+        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="J25" s="5">
-        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K25" s="22">
-        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($G25,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N25" s="5">
-        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.5</v>
+        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O25" s="5">
-        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.5</v>
+        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P25" s="5">
-        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="22">
-        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M25,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5">
-        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.9400000000000002</v>
+        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
-        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.376</v>
+        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
-        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>1.5640000000000001</v>
+        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="E26" s="22">
-        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A26,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="5">
-        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K26" s="22">
-        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G26,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N26" s="5">
-        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>9.4240000000000013</v>
+        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
-        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.6686000000000001</v>
+        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
-        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>7.7553999999999998</v>
+        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q26" s="22">
-        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M26,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2205,180 +2253,180 @@
         <v>23</v>
       </c>
       <c r="B27" s="5">
-        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.36249999999999999</v>
+        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="C27" s="5">
-        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.36249999999999999</v>
+        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="5">
-        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E27" s="22">
-        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($A27,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="5">
-        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K27" s="22">
-        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G27,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N27" s="5">
-        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>9.4240000000000013</v>
+        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O27" s="5">
-        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.6686000000000001</v>
+        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>7.7553999999999998</v>
+        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q27" s="22">
-        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M27,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="5">
-        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C28" s="5">
-        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E28" s="22">
-        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A28,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="5">
-        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="5">
-        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K28" s="22">
-        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G28,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M28" s="21"/>
       <c r="N28" s="5">
-        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O28" s="5">
-        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="22">
-        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M28,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="5">
-        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C29" s="5">
-        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D29" s="5">
-        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E29" s="22">
-        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A29,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="5">
-        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="5">
-        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="K29" s="22">
-        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($G29,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="5">
-        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O29" s="5">
-        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="22">
-        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M29,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="5">
-        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C30" s="5">
-        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="E30" s="22">
-        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($A30,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="25" t="s">
@@ -2386,7 +2434,7 @@
       </c>
       <c r="H30" s="17">
         <f>SUM(H23:H29)</f>
-        <v>5.2808790000000005</v>
+        <v>0.34379176</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2396,7 +2444,7 @@
       </c>
       <c r="N30" s="17">
         <f>SUM(N23:N29)</f>
-        <v>29.737542879999999</v>
+        <v>0</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2408,7 +2456,7 @@
       </c>
       <c r="B31" s="17">
         <f>SUM(B24:B30)</f>
-        <v>4.6025</v>
+        <v>0</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2418,7 +2466,7 @@
       </c>
       <c r="H31" s="17">
         <f>SUM(I23:I29)</f>
-        <v>1.6421318499999999</v>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2428,7 +2476,7 @@
       </c>
       <c r="N31" s="17">
         <f>SUM(O23:O29)</f>
-        <v>9.4756314320000001</v>
+        <v>0</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -2440,7 +2488,7 @@
       </c>
       <c r="B32" s="17">
         <f>SUM(C24:C30)</f>
-        <v>3.0384999999999995</v>
+        <v>0</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2450,7 +2498,7 @@
       </c>
       <c r="H32" s="17">
         <f>SUM(J23:J29)</f>
-        <v>3.6387471499999999</v>
+        <v>0.249722996</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2460,7 +2508,7 @@
       </c>
       <c r="N32" s="17">
         <f>SUM(P23:P29)</f>
-        <v>20.261911447999999</v>
+        <v>0</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -2472,7 +2520,7 @@
       </c>
       <c r="B33" s="17">
         <f>SUM(D24:D30)</f>
-        <v>1.5640000000000001</v>
+        <v>0</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2482,7 +2530,7 @@
       </c>
       <c r="H33" s="17">
         <f>LARGE(K23:K29,1)</f>
-        <v>355</v>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2492,7 +2540,7 @@
       </c>
       <c r="N33" s="17">
         <f>LARGE(Q23:Q29,1)</f>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -2504,7 +2552,7 @@
       </c>
       <c r="B34" s="17">
         <f>LARGE(E24:E30,1)</f>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2514,7 +2562,7 @@
       </c>
       <c r="H34" s="17">
         <f>H16</f>
-        <v>4.9983353600000004</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2524,7 +2572,7 @@
       </c>
       <c r="N34" s="17">
         <f>N16</f>
-        <v>10.360295000000001</v>
+        <v>0.34379176</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2545,7 +2593,7 @@
       </c>
       <c r="H35" s="17">
         <f>H34+H30</f>
-        <v>10.279214360000001</v>
+        <v>0.34379176</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -2555,7 +2603,7 @@
       </c>
       <c r="N35" s="17">
         <f>N34+N30</f>
-        <v>40.09783788</v>
+        <v>0.34379176</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -2567,7 +2615,7 @@
       </c>
       <c r="B36" s="17">
         <f>B35+B31</f>
-        <v>4.6025</v>
+        <v>0</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2577,7 +2625,7 @@
       </c>
       <c r="H36" s="17">
         <f>H35-H32</f>
-        <v>6.6404672100000006</v>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -2587,7 +2635,7 @@
       </c>
       <c r="N36" s="17">
         <f>N35-N32</f>
-        <v>19.835926432000001</v>
+        <v>0.34379176</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -2599,7 +2647,7 @@
       </c>
       <c r="B37" s="17">
         <f>B36-B33</f>
-        <v>3.0385</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2609,7 +2657,7 @@
       </c>
       <c r="H37" s="17">
         <f>(H33*9.81)*LN(H35/H36)</f>
-        <v>1521.6706522279887</v>
+        <v>1.1959769895726515</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2619,7 +2667,7 @@
       </c>
       <c r="N37" s="17">
         <f>(N33*9.81)*LN(N35/N36)</f>
-        <v>2451.11499938619</v>
+        <v>0</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -2629,9 +2677,9 @@
       <c r="A38" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="17" t="e">
         <f>(B34*9.81)*LN(B36/B37)</f>
-        <v>1446.07895306765</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2639,9 +2687,9 @@
       <c r="G38" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="27" t="e">
         <f>H37+H19</f>
-        <v>3081.8089624081022</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
@@ -2651,7 +2699,7 @@
       </c>
       <c r="N38" s="19">
         <f>N37+N19</f>
-        <v>3993.0345018869502</v>
+        <v>1.1959769895726515</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -2661,9 +2709,9 @@
       <c r="A39" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="27" t="e">
         <f>B38+0</f>
-        <v>1446.07895306765</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -2686,7 +2734,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="M40" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -2732,23 +2780,23 @@
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="M42" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N42" s="5">
-        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>9.4240000000000013</v>
+        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O42" s="5">
-        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.6686000000000001</v>
+        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P42" s="5">
-        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>7.7553999999999998</v>
+        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q42" s="22">
-        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M42,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2763,23 +2811,23 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="M43" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N43" s="5">
-        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>9.4240000000000013</v>
+        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O43" s="5">
-        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.6686000000000001</v>
+        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P43" s="5">
-        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>7.7553999999999998</v>
+        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q43" s="22">
-        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M43,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -2794,23 +2842,23 @@
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="M44" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N44" s="5">
-        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>3.6</v>
+        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O44" s="5">
-        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>3.6</v>
+        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P44" s="5">
-        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q44" s="22">
-        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M44,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -2825,23 +2873,23 @@
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="M45" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N45" s="5">
-        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>9.4240000000000013</v>
+        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$M$30,8,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="O45" s="5">
-        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.6686000000000001</v>
+        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="P45" s="5">
-        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>7.7553999999999998</v>
+        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$M$30,6,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="Q45" s="22">
-        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($M45,partInfo!$A$2:$M$30,9,FALSE),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2857,19 +2905,19 @@
       <c r="K46" s="20"/>
       <c r="M46" s="21"/>
       <c r="N46" s="5">
-        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O46" s="5">
-        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q46" s="22">
-        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M46,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2886,19 +2934,19 @@
       <c r="K47" s="20"/>
       <c r="M47" s="21"/>
       <c r="N47" s="5">
-        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O47" s="5">
-        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="22">
-        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M47,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2915,19 +2963,19 @@
       <c r="K48" s="20"/>
       <c r="M48" s="21"/>
       <c r="N48" s="5">
-        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O48" s="5">
-        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="P48" s="5">
-        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="22">
-        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($M48,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2947,7 +2995,7 @@
       </c>
       <c r="N49" s="17">
         <f>SUM(N42:N48)</f>
-        <v>31.872000000000007</v>
+        <v>0</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -2969,7 +3017,7 @@
       </c>
       <c r="N50" s="17">
         <f>SUM(O42:O48)</f>
-        <v>8.6058000000000003</v>
+        <v>0</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -2991,7 +3039,7 @@
       </c>
       <c r="N51" s="17">
         <f>SUM(P42:P48)</f>
-        <v>23.266199999999998</v>
+        <v>0</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -3013,7 +3061,7 @@
       </c>
       <c r="N52" s="17">
         <f>LARGE(Q42:Q48,1)</f>
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -3035,7 +3083,7 @@
       </c>
       <c r="N53" s="17">
         <f>N35</f>
-        <v>40.09783788</v>
+        <v>0.34379176</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -3057,7 +3105,7 @@
       </c>
       <c r="N54" s="17">
         <f>N53+N49</f>
-        <v>71.96983788</v>
+        <v>0.34379176</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -3079,7 +3127,7 @@
       </c>
       <c r="N55" s="17">
         <f>N54-N51</f>
-        <v>48.703637880000002</v>
+        <v>0.34379176</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -3101,7 +3149,7 @@
       </c>
       <c r="N56" s="17">
         <f>(N52*9.81)*LN(N54/N55)</f>
-        <v>1359.9127407825963</v>
+        <v>0</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -3123,7 +3171,7 @@
       </c>
       <c r="N57" s="27">
         <f>N56+N38</f>
-        <v>5352.9472426695465</v>
+        <v>1.1959769895726515</v>
       </c>
       <c r="O57" s="28"/>
       <c r="P57" s="28"/>
@@ -3158,7 +3206,7 @@
   <dimension ref="B1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3235,22 +3283,22 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5">
-        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>1.875</v>
+        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="5">
-        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>1.875</v>
+        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="5">
-        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B3,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>355</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -3273,22 +3321,22 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5">
-        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.75</v>
+        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0.99323401200000005</v>
       </c>
       <c r="D4" s="5">
-        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.75</v>
+        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0.19323401199999998</v>
       </c>
       <c r="E4" s="5">
-        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$M$30,10,FALSE),)</f>
+        <v>0.8</v>
       </c>
       <c r="F4" s="6">
-        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B4,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>355</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -3311,22 +3359,22 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5">
-        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>2.4</v>
+        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0.3</v>
       </c>
       <c r="D5" s="5">
-        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>2.4</v>
+        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0.3</v>
       </c>
       <c r="E5" s="5">
-        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B5,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>355</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3350,24 +3398,22 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5">
-        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0.9</v>
+        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.9</v>
+        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($B6,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>40</v>
@@ -3388,24 +3434,22 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5">
-        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>2.2233353600000001</v>
+        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.41850030400000005</v>
+        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>1.8048350559999999</v>
+        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$M$30,10,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($B7,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>41</v>
@@ -3428,24 +3472,22 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="5">
-        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>4.1870872400000003</v>
+        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0.79806308599999998</v>
+        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>3.3890241539999999</v>
+        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$M$30,10,FALSE),)</f>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>355</v>
+        <f>IFERROR(VLOOKUP($B8,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>42</v>
@@ -3468,19 +3510,19 @@
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5">
-        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B9,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -3507,7 +3549,7 @@
       </c>
       <c r="C10" s="17">
         <f>SUM(C3:C9)</f>
-        <v>12.335422600000001</v>
+        <v>2.3932340119999997</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3536,7 +3578,7 @@
       </c>
       <c r="C11" s="17">
         <f>SUM(D3:D9)</f>
-        <v>7.1415633900000008</v>
+        <v>1.5932340120000001</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3565,7 +3607,7 @@
       </c>
       <c r="C12" s="17">
         <f>SUM(E3:E9)</f>
-        <v>5.1938592099999994</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3622,7 +3664,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3653,7 +3695,7 @@
       </c>
       <c r="C15" s="17">
         <f>C14+C10</f>
-        <v>12.335422600000001</v>
+        <v>2.6432340119999997</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3682,7 +3724,7 @@
       </c>
       <c r="C16" s="17">
         <f>C15-C12</f>
-        <v>7.1415633900000017</v>
+        <v>1.8432340119999997</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3711,7 +3753,7 @@
       </c>
       <c r="C17" s="17">
         <f>(C13*9.81)*LN(C15/C16)</f>
-        <v>1903.3643522178486</v>
+        <v>1255.3949451889223</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3723,7 +3765,7 @@
       </c>
       <c r="C18" s="19">
         <f>C17+0</f>
-        <v>1903.3643522178486</v>
+        <v>1255.3949451889223</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3772,7 +3814,7 @@
         <v>54</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>66</v>
@@ -3780,28 +3822,30 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C22" s="5">
-        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0.39406876400000002</v>
       </c>
       <c r="D22" s="5">
-        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>9.4068763999999999E-2</v>
       </c>
       <c r="E22" s="5">
-        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$M$30,10,FALSE),)</f>
+        <v>0.3</v>
       </c>
       <c r="F22" s="6">
-        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B22,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>355</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>67</v>
@@ -3809,28 +3853,30 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="C23" s="5">
-        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>1.10350616</v>
       </c>
       <c r="D23" s="5">
-        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0.20350615999999999</v>
       </c>
       <c r="E23" s="5">
-        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$J$30,6,FALSE),)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$M$30,10,FALSE),)</f>
+        <v>0.9</v>
       </c>
       <c r="F23" s="6">
-        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B23,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>355</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>68</v>
@@ -3838,28 +3884,30 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C24" s="5">
-        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>0.36249999999999999</v>
       </c>
       <c r="D24" s="5">
-        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>0.36249999999999999</v>
       </c>
       <c r="E24" s="5">
-        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F24" s="6">
-        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B24,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>355</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>48</v>
@@ -3867,78 +3915,80 @@
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="C25" s="5">
-        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$J$30,8,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$M$30,11,FALSE),0)</f>
+        <v>1.2</v>
       </c>
       <c r="D25" s="5">
-        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$J$30,7,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$M$30,7,FALSE),0)</f>
+        <v>1.2</v>
       </c>
       <c r="E25" s="5">
-        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$J$30,9,FALSE),0)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($B25,partInfo!$A$2:$M$30,12,FALSE),0)</f>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5">
-        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D26" s="5">
-        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B26,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5">
-        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D27" s="5">
-        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B27,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5">
-        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B28,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3948,7 +3998,7 @@
       </c>
       <c r="C29" s="17">
         <f>SUM(C22:C28)</f>
-        <v>0</v>
+        <v>3.0600749240000003</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -3960,7 +4010,7 @@
       </c>
       <c r="C30" s="17">
         <f>SUM(D22:D28)</f>
-        <v>0</v>
+        <v>1.8600749239999999</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3972,7 +4022,7 @@
       </c>
       <c r="C31" s="17">
         <f>SUM(E22:E28)</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3984,7 +4034,7 @@
       </c>
       <c r="C32" s="17">
         <f>LARGE(F22:F28,1)</f>
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3996,7 +4046,7 @@
       </c>
       <c r="C33" s="17">
         <f>C15</f>
-        <v>12.335422600000001</v>
+        <v>2.6432340119999997</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -4008,7 +4058,7 @@
       </c>
       <c r="C34" s="17">
         <f>C33+C29</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -4020,7 +4070,7 @@
       </c>
       <c r="C35" s="17">
         <f>C34-C31</f>
-        <v>12.335422600000001</v>
+        <v>4.5033089359999998</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -4032,7 +4082,7 @@
       </c>
       <c r="C36" s="17">
         <f>(C32*9.81)*LN(C34/C35)</f>
-        <v>0</v>
+        <v>822.69698075314147</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -4044,7 +4094,7 @@
       </c>
       <c r="C37" s="19">
         <f>C36+C18</f>
-        <v>1903.3643522178486</v>
+        <v>2078.0919259420639</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -4075,133 +4125,133 @@
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5">
-        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D41" s="5">
-        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B41,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5">
-        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D42" s="5">
-        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F42" s="6">
-        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B42,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="5">
-        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D43" s="5">
-        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B43,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="5">
-        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D44" s="5">
-        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B44,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="5">
-        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D45" s="5">
-        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E45" s="5">
-        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B45,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="5">
-        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D46" s="5">
-        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E46" s="5">
-        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F46" s="6">
-        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B46,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="5">
-        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$M$30,11,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D47" s="5">
-        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$M$30,10,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B47,partInfo!$A$2:$M$30,12,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4259,7 +4309,7 @@
       </c>
       <c r="C52" s="17">
         <f>C34</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -4271,7 +4321,7 @@
       </c>
       <c r="C53" s="17">
         <f>C52+C48</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4283,7 +4333,7 @@
       </c>
       <c r="C54" s="17">
         <f>C53-C50</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4307,7 +4357,7 @@
       </c>
       <c r="C56" s="19">
         <f>C55+C37</f>
-        <v>1903.3643522178486</v>
+        <v>2078.0919259420639</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -4338,133 +4388,133 @@
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="5">
-        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D60" s="5">
-        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B60,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="5">
-        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D61" s="5">
-        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B61,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="5">
-        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D62" s="5">
-        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F62" s="6">
-        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B62,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="5">
-        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D63" s="5">
-        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E63" s="5">
-        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B63,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="5">
-        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D64" s="5">
-        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E64" s="5">
-        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F64" s="6">
-        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B64,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="5">
-        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D65" s="5">
-        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E65" s="5">
-        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B65,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="5">
-        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$J$30,8,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$M$30,8,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D66" s="5">
-        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$J$30,7,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$M$30,7,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E66" s="5">
-        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$J$30,6,FALSE),)</f>
+        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$M$30,6,FALSE),)</f>
         <v>0</v>
       </c>
       <c r="F66" s="6">
-        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$J$30,9,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP($B66,partInfo!$A$2:$M$30,9,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4572,7 @@
       </c>
       <c r="C71" s="17">
         <f>C53</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -4534,7 +4584,7 @@
       </c>
       <c r="C72" s="17">
         <f>C71+C67</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -4546,7 +4596,7 @@
       </c>
       <c r="C73" s="17">
         <f>C72-C69</f>
-        <v>12.335422600000001</v>
+        <v>5.703308936</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4570,7 +4620,7 @@
       </c>
       <c r="C75" s="19">
         <f>C74+C56</f>
-        <v>1903.3643522178486</v>
+        <v>2078.0919259420639</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4613,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,13 +4679,14 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4661,39 +4712,48 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" t="s">
-        <v>143</v>
-      </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="O1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4721,46 +4781,58 @@
         <v>0.3</v>
       </c>
       <c r="I2">
+        <f>G2</f>
+        <v>0.3</v>
+      </c>
+      <c r="J2">
+        <f>0.005*S2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>J2+I2</f>
+        <v>0.3</v>
+      </c>
+      <c r="L2">
         <v>355</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>65</v>
       </c>
-      <c r="K2" s="33">
-        <f>J2/H2</f>
+      <c r="N2" s="33">
+        <f>M2/H2</f>
         <v>216.66666666666669</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>300</v>
       </c>
-      <c r="M2">
-        <f>L2/J2*H2</f>
+      <c r="P2">
+        <f>O2/M2*H2</f>
         <v>1.3846153846153844</v>
       </c>
-      <c r="O2" s="33">
+      <c r="R2" s="33">
         <f>F2*200</f>
         <v>0</v>
       </c>
-      <c r="P2">
-        <f>20 * ROUNDUP(O2/20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>P2*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>P2*0.55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>20 * ROUNDUP(R2/20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>S2*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>S2*0.55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B3" s="33">
-        <f>N3</f>
-        <v>0.86449999999999994</v>
+        <f>Q3</f>
+        <v>0.87156007999999996</v>
       </c>
       <c r="C3" s="33">
         <v>6.25E-2</v>
@@ -4770,61 +4842,74 @@
       </c>
       <c r="E3" s="33">
         <f t="shared" ref="E3:E30" si="0">D3*B3</f>
-        <v>0.12967499999999998</v>
+        <v>0.13073401199999998</v>
       </c>
       <c r="F3" s="33">
         <f t="shared" ref="F3:F30" si="1">B3*(1-D3)</f>
-        <v>0.73482499999999995</v>
+        <v>0.74082606799999995</v>
       </c>
       <c r="G3" s="33">
         <f t="shared" ref="G3:G30" si="2">E3+C3</f>
-        <v>0.19217499999999998</v>
+        <v>0.19323401199999998</v>
       </c>
       <c r="H3" s="33">
         <f t="shared" ref="H3:H30" si="3">F3+E3+C3</f>
-        <v>0.92699999999999994</v>
-      </c>
-      <c r="I3" s="33">
+        <v>0.93406007999999996</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="4">G3</f>
+        <v>0.19323401199999998</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J30" si="5">0.005*S3</f>
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K30" si="6">J3+I3</f>
+        <v>0.99323401200000005</v>
+      </c>
+      <c r="L3" s="33">
         <v>355</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33">
-        <f t="shared" ref="K3:K30" si="4">J3/H3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33">
+        <f t="shared" ref="N3:N30" si="7">M3/H3</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>300</v>
       </c>
-      <c r="M3" t="e">
-        <f t="shared" ref="M3:M30" si="5">L3/J3*H3</f>
+      <c r="P3" t="e">
+        <f t="shared" ref="P3:P30" si="8">O3/M3*H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N3" s="33">
-        <v>0.86449999999999994</v>
-      </c>
-      <c r="O3" s="33">
+      <c r="Q3" s="33">
+        <f>4*0.21789002</f>
+        <v>0.87156007999999996</v>
+      </c>
+      <c r="R3" s="33">
         <f>F3*200</f>
-        <v>146.965</v>
-      </c>
-      <c r="P3" s="33">
-        <f t="shared" ref="P3:P30" si="6">20 * ROUNDUP(O3/20,0)</f>
+        <v>148.16521359999999</v>
+      </c>
+      <c r="S3" s="33">
+        <f t="shared" ref="S3:S30" si="9">20 * ROUNDUP(R3/20,0)</f>
         <v>160</v>
       </c>
-      <c r="Q3" s="33">
-        <f t="shared" ref="Q3:Q30" si="7">P3*0.45</f>
+      <c r="T3" s="33">
+        <f t="shared" ref="T3:T30" si="10">S3*0.45</f>
         <v>72</v>
       </c>
-      <c r="R3" s="33">
-        <f t="shared" ref="R3:R30" si="8">P3*0.55</f>
+      <c r="U3" s="33">
+        <f t="shared" ref="U3:U30" si="11">S3*0.55</f>
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B4" s="34">
-        <f t="shared" ref="B4:B29" si="9">N4</f>
+        <f t="shared" ref="B4:B29" si="12">Q4</f>
         <v>0</v>
       </c>
       <c r="C4" s="34">
@@ -4849,48 +4934,60 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="34">
         <v>355</v>
       </c>
-      <c r="J4" s="34">
-        <f>4*J2</f>
+      <c r="M4" s="34">
+        <f>4*M2</f>
         <v>260</v>
       </c>
-      <c r="K4" s="33">
-        <f t="shared" si="4"/>
+      <c r="N4" s="33">
+        <f t="shared" si="7"/>
         <v>216.66666666666669</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>300</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="5"/>
+      <c r="P4">
+        <f t="shared" si="8"/>
         <v>1.3846153846153844</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34">
-        <f t="shared" ref="O4:O30" si="10">F4*200</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="Q4" s="34"/>
       <c r="R4" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R4:R30" si="13">F4*200</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B5" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0233744</v>
       </c>
       <c r="C5" s="33">
@@ -4915,48 +5012,60 @@
         <f t="shared" si="3"/>
         <v>1.0733744000000001</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.20350615999999999</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1.10350616</v>
+      </c>
+      <c r="L5" s="33">
         <v>355</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="M5" t="e">
-        <f t="shared" si="5"/>
+      <c r="P5" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="33">
+      <c r="Q5" s="33">
         <f>8*0.1279218</f>
         <v>1.0233744</v>
       </c>
-      <c r="O5" s="33">
+      <c r="R5" s="33">
+        <f t="shared" si="13"/>
+        <v>173.973648</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="T5" s="33">
         <f t="shared" si="10"/>
-        <v>173.973648</v>
-      </c>
-      <c r="P5" s="33">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="Q5" s="33">
-        <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="R5" s="33">
-        <f t="shared" si="8"/>
+      <c r="U5" s="33">
+        <f t="shared" si="11"/>
         <v>99.000000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B6" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.84</v>
       </c>
       <c r="C6" s="33">
@@ -4981,48 +5090,60 @@
         <f t="shared" si="3"/>
         <v>1.9400000000000002</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.376</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1.976</v>
+      </c>
+      <c r="L6" s="33">
         <v>355</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="M6" s="33"/>
+      <c r="N6" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>300</v>
       </c>
-      <c r="M6" t="e">
-        <f t="shared" si="5"/>
+      <c r="P6" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="33">
+      <c r="Q6" s="33">
         <f>0.46*4</f>
         <v>1.84</v>
       </c>
-      <c r="O6" s="33">
+      <c r="R6" s="33">
+        <f t="shared" si="13"/>
+        <v>312.8</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="T6" s="33">
         <f t="shared" si="10"/>
-        <v>312.8</v>
-      </c>
-      <c r="P6" s="33">
-        <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-      <c r="Q6" s="33">
-        <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="R6" s="33">
-        <f t="shared" si="8"/>
+      <c r="U6" s="33">
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B7" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C7" s="34">
@@ -5047,45 +5168,57 @@
         <f t="shared" si="3"/>
         <v>0.36249999999999999</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="L7" s="34">
         <v>355</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="M7" s="34"/>
+      <c r="N7" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>300</v>
       </c>
-      <c r="M7" t="e">
-        <f t="shared" si="5"/>
+      <c r="P7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34">
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P7" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U7" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="B8" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C8" s="34">
@@ -5110,45 +5243,57 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8" s="34">
         <v>355</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="M8" s="34"/>
+      <c r="N8" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>300</v>
       </c>
-      <c r="M8" t="e">
-        <f t="shared" si="5"/>
+      <c r="P8" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U8" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B9" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C9" s="34">
@@ -5173,48 +5318,60 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="34">
         <v>355</v>
       </c>
-      <c r="J9" s="34">
-        <f>3*J2</f>
+      <c r="M9" s="34">
+        <f>3*M2</f>
         <v>195</v>
       </c>
-      <c r="K9" s="33">
-        <f t="shared" si="4"/>
+      <c r="N9" s="33">
+        <f t="shared" si="7"/>
         <v>216.66666666666666</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>300</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
+      <c r="P9">
+        <f t="shared" si="8"/>
         <v>1.3846153846153848</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34">
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U9" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="B10" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.12333536</v>
       </c>
       <c r="C10" s="33">
@@ -5239,48 +5396,60 @@
         <f t="shared" si="3"/>
         <v>2.2233353600000001</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.41850030400000005</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>2.3185003040000001</v>
+      </c>
+      <c r="L10" s="33">
         <v>355</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="M10" s="33"/>
+      <c r="N10" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>300</v>
       </c>
-      <c r="M10" t="e">
-        <f t="shared" si="5"/>
+      <c r="P10" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="33">
+      <c r="Q10" s="33">
         <f>8*0.26541692</f>
         <v>2.12333536</v>
       </c>
-      <c r="O10" s="33">
+      <c r="R10" s="33">
+        <f t="shared" si="13"/>
+        <v>360.9670112</v>
+      </c>
+      <c r="S10" s="33">
+        <f t="shared" si="9"/>
+        <v>380</v>
+      </c>
+      <c r="T10" s="33">
         <f t="shared" si="10"/>
-        <v>360.9670112</v>
-      </c>
-      <c r="P10" s="33">
-        <f t="shared" si="6"/>
-        <v>380</v>
-      </c>
-      <c r="Q10" s="33">
-        <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="R10" s="33">
-        <f t="shared" si="8"/>
+      <c r="U10" s="33">
+        <f t="shared" si="11"/>
         <v>209.00000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C11" s="34">
@@ -5305,48 +5474,60 @@
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="L11" s="34">
         <v>355</v>
       </c>
-      <c r="J11" s="34">
-        <f>8*J2</f>
+      <c r="M11" s="34">
+        <f>8*M2</f>
         <v>520</v>
       </c>
-      <c r="K11" s="33">
-        <f t="shared" si="4"/>
+      <c r="N11" s="33">
+        <f t="shared" si="7"/>
         <v>216.66666666666669</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>300</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
+      <c r="P11">
+        <f t="shared" si="8"/>
         <v>1.3846153846153844</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34">
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B12" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.7654230399999999</v>
       </c>
       <c r="C12" s="33">
@@ -5371,48 +5552,60 @@
         <f t="shared" si="3"/>
         <v>1.86542304</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.36481345600000004</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>1.9648134560000001</v>
+      </c>
+      <c r="L12" s="33">
         <v>355</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="M12" s="33"/>
+      <c r="N12" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>300</v>
       </c>
-      <c r="M12" t="e">
-        <f t="shared" si="5"/>
+      <c r="P12" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="33">
+      <c r="Q12" s="33">
         <f>8*0.22067788</f>
         <v>1.7654230399999999</v>
       </c>
-      <c r="O12" s="33">
+      <c r="R12" s="33">
+        <f t="shared" si="13"/>
+        <v>300.12191680000001</v>
+      </c>
+      <c r="S12" s="33">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="T12" s="33">
         <f t="shared" si="10"/>
-        <v>300.12191680000001</v>
-      </c>
-      <c r="P12" s="33">
-        <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-      <c r="Q12" s="33">
-        <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="R12" s="33">
-        <f t="shared" si="8"/>
+      <c r="U12" s="33">
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="B13" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.9870872400000001</v>
       </c>
       <c r="C13" s="33">
@@ -5437,48 +5630,60 @@
         <f t="shared" si="3"/>
         <v>4.1870872400000003</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.79806308599999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>4.1980630859999994</v>
+      </c>
+      <c r="L13" s="33">
         <v>355</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="M13" s="33"/>
+      <c r="N13" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>300</v>
       </c>
-      <c r="M13" t="e">
-        <f t="shared" si="5"/>
+      <c r="P13" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="33">
+      <c r="Q13" s="33">
         <f>4*0.99677181</f>
         <v>3.9870872400000001</v>
       </c>
-      <c r="O13" s="33">
+      <c r="R13" s="33">
+        <f t="shared" si="13"/>
+        <v>677.80483079999999</v>
+      </c>
+      <c r="S13" s="33">
+        <f t="shared" si="9"/>
+        <v>680</v>
+      </c>
+      <c r="T13" s="33">
         <f t="shared" si="10"/>
-        <v>677.80483079999999</v>
-      </c>
-      <c r="P13" s="33">
-        <f t="shared" si="6"/>
-        <v>680</v>
-      </c>
-      <c r="Q13" s="33">
-        <f t="shared" si="7"/>
         <v>306</v>
       </c>
-      <c r="R13" s="33">
-        <f t="shared" si="8"/>
+      <c r="U13" s="33">
+        <f t="shared" si="11"/>
         <v>374.00000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B14" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.8009199999999996</v>
       </c>
       <c r="C14" s="33">
@@ -5503,48 +5708,60 @@
         <f t="shared" si="3"/>
         <v>5.0009199999999998</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.9201379999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>5.0201379999999993</v>
+      </c>
+      <c r="L14" s="33">
         <v>355</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="M14" s="33"/>
+      <c r="N14" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>300</v>
       </c>
-      <c r="M14" t="e">
-        <f t="shared" si="5"/>
+      <c r="P14" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="33">
+      <c r="Q14" s="33">
         <f>4*0.28905 + 8*0.45559</f>
         <v>4.8009199999999996</v>
       </c>
-      <c r="O14" s="33">
+      <c r="R14" s="33">
+        <f t="shared" si="13"/>
+        <v>816.15639999999985</v>
+      </c>
+      <c r="S14" s="33">
+        <f t="shared" si="9"/>
+        <v>820</v>
+      </c>
+      <c r="T14" s="33">
         <f t="shared" si="10"/>
-        <v>816.15639999999985</v>
-      </c>
-      <c r="P14" s="33">
-        <f t="shared" si="6"/>
-        <v>820</v>
-      </c>
-      <c r="Q14" s="33">
-        <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="R14" s="33">
-        <f t="shared" si="8"/>
+      <c r="U14" s="33">
+        <f t="shared" si="11"/>
         <v>451.00000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C15" s="34">
@@ -5569,45 +5786,57 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="L15" s="34">
         <v>355</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="M15" s="34"/>
+      <c r="N15" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>300</v>
       </c>
-      <c r="M15" t="e">
-        <f t="shared" si="5"/>
+      <c r="P15" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34">
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U15" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C16" s="34">
@@ -5632,45 +5861,57 @@
         <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>1.875</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>1.875</v>
+      </c>
+      <c r="L16" s="34">
         <v>355</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="M16" s="34"/>
+      <c r="N16" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>300</v>
       </c>
-      <c r="M16" t="e">
-        <f t="shared" si="5"/>
+      <c r="P16" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34">
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P16" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U16" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C17" s="34">
@@ -5695,48 +5936,60 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="L17" s="34">
         <v>355</v>
       </c>
-      <c r="J17" s="34">
-        <f>4*J2</f>
+      <c r="M17" s="34">
+        <f>4*M2</f>
         <v>260</v>
       </c>
-      <c r="K17" s="33">
-        <f t="shared" si="4"/>
+      <c r="N17" s="33">
+        <f t="shared" si="7"/>
         <v>216.66666666666669</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>300</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="5"/>
+      <c r="P17">
+        <f t="shared" si="8"/>
         <v>1.3846153846153844</v>
       </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U17" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B18" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.0431288400000001</v>
       </c>
       <c r="C18" s="33">
@@ -5761,48 +6014,60 @@
         <f t="shared" si="3"/>
         <v>3.2431288400000002</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.65646932600000008</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>3.2564693260000004</v>
+      </c>
+      <c r="L18" s="33">
         <v>355</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="M18" s="33"/>
+      <c r="N18" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>300</v>
       </c>
-      <c r="M18" t="e">
-        <f t="shared" si="5"/>
+      <c r="P18" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="33">
+      <c r="Q18" s="33">
         <f>12 * 0.25359407</f>
         <v>3.0431288400000001</v>
       </c>
-      <c r="O18" s="33">
+      <c r="R18" s="33">
+        <f t="shared" si="13"/>
+        <v>517.33190279999997</v>
+      </c>
+      <c r="S18" s="33">
+        <f t="shared" si="9"/>
+        <v>520</v>
+      </c>
+      <c r="T18" s="33">
         <f t="shared" si="10"/>
-        <v>517.33190279999997</v>
-      </c>
-      <c r="P18" s="33">
-        <f t="shared" si="6"/>
-        <v>520</v>
-      </c>
-      <c r="Q18" s="33">
-        <f t="shared" si="7"/>
         <v>234</v>
       </c>
-      <c r="R18" s="33">
-        <f t="shared" si="8"/>
+      <c r="U18" s="33">
+        <f t="shared" si="11"/>
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C19" s="34">
@@ -5827,48 +6092,60 @@
         <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>3.6</v>
+      </c>
+      <c r="L19" s="34">
         <v>355</v>
       </c>
-      <c r="J19" s="34">
-        <f>12*J2</f>
+      <c r="M19" s="34">
+        <f>12*M2</f>
         <v>780</v>
       </c>
-      <c r="K19" s="33">
-        <f t="shared" si="4"/>
+      <c r="N19" s="33">
+        <f t="shared" si="7"/>
         <v>216.66666666666666</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>300</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
+      <c r="P19">
+        <f t="shared" si="8"/>
         <v>1.3846153846153848</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34">
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P19" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U19" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B20" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.5895428799999998</v>
       </c>
       <c r="C20" s="33">
@@ -5893,48 +6170,60 @@
         <f t="shared" si="3"/>
         <v>5.7895428799999999</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>1.0384314319999999</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>5.8384314320000001</v>
+      </c>
+      <c r="L20" s="33">
         <v>355</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="M20" s="33"/>
+      <c r="N20" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>300</v>
       </c>
-      <c r="M20" t="e">
-        <f t="shared" si="5"/>
+      <c r="P20" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="33">
+      <c r="Q20" s="33">
         <f>4*1.39738572</f>
         <v>5.5895428799999998</v>
       </c>
-      <c r="O20" s="33">
+      <c r="R20" s="33">
+        <f t="shared" si="13"/>
+        <v>950.22228959999995</v>
+      </c>
+      <c r="S20" s="33">
+        <f t="shared" si="9"/>
+        <v>960</v>
+      </c>
+      <c r="T20" s="33">
         <f t="shared" si="10"/>
-        <v>950.22228959999995</v>
-      </c>
-      <c r="P20" s="33">
-        <f t="shared" si="6"/>
-        <v>960</v>
-      </c>
-      <c r="Q20" s="33">
-        <f t="shared" si="7"/>
         <v>432</v>
       </c>
-      <c r="R20" s="33">
-        <f t="shared" si="8"/>
+      <c r="U20" s="33">
+        <f t="shared" si="11"/>
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B21" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.65903424</v>
       </c>
       <c r="C21" s="33">
@@ -5959,48 +6248,60 @@
         <f t="shared" si="3"/>
         <v>2.8090342399999999</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.54885513600000002</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>2.8488551360000001</v>
+      </c>
+      <c r="L21" s="33">
         <v>355</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>300</v>
       </c>
-      <c r="M21" t="e">
-        <f t="shared" si="5"/>
+      <c r="P21" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="33">
+      <c r="Q21" s="33">
         <f>4*0.3185 + 16*0.08656464</f>
         <v>2.65903424</v>
       </c>
-      <c r="O21" s="33">
+      <c r="R21" s="33">
+        <f t="shared" si="13"/>
+        <v>452.03582080000001</v>
+      </c>
+      <c r="S21" s="33">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+      <c r="T21" s="33">
         <f t="shared" si="10"/>
-        <v>452.03582080000001</v>
-      </c>
-      <c r="P21" s="33">
-        <f t="shared" si="6"/>
-        <v>460</v>
-      </c>
-      <c r="Q21" s="33">
-        <f t="shared" si="7"/>
         <v>207</v>
       </c>
-      <c r="R21" s="33">
-        <f t="shared" si="8"/>
+      <c r="U21" s="33">
+        <f t="shared" si="11"/>
         <v>253.00000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="B22" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.1240000000000006</v>
       </c>
       <c r="C22" s="33">
@@ -6025,48 +6326,60 @@
         <f t="shared" si="3"/>
         <v>9.4240000000000013</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>1.6686000000000001</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>7.8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>9.4686000000000003</v>
+      </c>
+      <c r="L22" s="33">
         <v>355</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="M22" s="33"/>
+      <c r="N22" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>300</v>
       </c>
-      <c r="M22" t="e">
-        <f t="shared" si="5"/>
+      <c r="P22" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="33">
+      <c r="Q22" s="33">
         <f>4*2.281</f>
         <v>9.1240000000000006</v>
       </c>
-      <c r="O22" s="33">
+      <c r="R22" s="33">
+        <f t="shared" si="13"/>
+        <v>1551.08</v>
+      </c>
+      <c r="S22" s="33">
+        <f t="shared" si="9"/>
+        <v>1560</v>
+      </c>
+      <c r="T22" s="33">
         <f t="shared" si="10"/>
-        <v>1551.08</v>
-      </c>
-      <c r="P22" s="33">
-        <f t="shared" si="6"/>
-        <v>1560</v>
-      </c>
-      <c r="Q22" s="33">
-        <f t="shared" si="7"/>
         <v>702</v>
       </c>
-      <c r="R22" s="33">
-        <f t="shared" si="8"/>
+      <c r="U22" s="33">
+        <f t="shared" si="11"/>
         <v>858.00000000000011</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B23" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.78016328</v>
       </c>
       <c r="C23" s="33">
@@ -6091,48 +6404,60 @@
         <f t="shared" si="3"/>
         <v>8.03016328</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>1.4170244919999999</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>6.7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>8.1170244920000005</v>
+      </c>
+      <c r="L23" s="33">
         <v>355</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>300</v>
       </c>
-      <c r="M23" t="e">
-        <f t="shared" si="5"/>
+      <c r="P23" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="33">
+      <c r="Q23" s="33">
         <f>4*1.94504082</f>
         <v>7.78016328</v>
       </c>
-      <c r="O23" s="33">
+      <c r="R23" s="33">
+        <f t="shared" si="13"/>
+        <v>1322.6277576</v>
+      </c>
+      <c r="S23" s="33">
+        <f t="shared" si="9"/>
+        <v>1340</v>
+      </c>
+      <c r="T23" s="33">
         <f t="shared" si="10"/>
-        <v>1322.6277576</v>
-      </c>
-      <c r="P23" s="33">
-        <f t="shared" si="6"/>
-        <v>1340</v>
-      </c>
-      <c r="Q23" s="33">
-        <f t="shared" si="7"/>
         <v>603</v>
       </c>
-      <c r="R23" s="33">
-        <f t="shared" si="8"/>
+      <c r="U23" s="33">
+        <f t="shared" si="11"/>
         <v>737.00000000000011</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="B24" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C24" s="34">
@@ -6157,45 +6482,57 @@
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="L24" s="34">
         <v>355</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="M24" s="34"/>
+      <c r="N24" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>300</v>
       </c>
-      <c r="M24" t="e">
-        <f t="shared" si="5"/>
+      <c r="P24" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34">
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P24" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U24" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29379176000000001</v>
       </c>
       <c r="C25" s="33">
@@ -6220,48 +6557,60 @@
         <f t="shared" si="3"/>
         <v>0.34379176</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>9.4068763999999999E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>0.39406876400000002</v>
+      </c>
+      <c r="L25" s="33">
         <v>355</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="M25" s="33"/>
+      <c r="N25" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>300</v>
       </c>
-      <c r="M25" t="e">
-        <f t="shared" si="5"/>
+      <c r="P25" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="33">
+      <c r="Q25" s="33">
         <f>4*0.07344794</f>
         <v>0.29379176000000001</v>
       </c>
-      <c r="O25" s="33">
+      <c r="R25" s="33">
+        <f t="shared" si="13"/>
+        <v>49.944599199999999</v>
+      </c>
+      <c r="S25" s="33">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="T25" s="33">
         <f t="shared" si="10"/>
-        <v>49.944599199999999</v>
-      </c>
-      <c r="P25" s="33">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="Q25" s="33">
-        <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="R25" s="33">
-        <f t="shared" si="8"/>
+      <c r="U25" s="33">
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B26" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C26" s="34">
@@ -6286,45 +6635,57 @@
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="L26" s="34">
         <v>355</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="M26" s="34"/>
+      <c r="N26" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>300</v>
       </c>
-      <c r="M26" t="e">
-        <f t="shared" si="5"/>
+      <c r="P26" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34">
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P26" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U26" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B27" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.8139643699999999</v>
       </c>
       <c r="C27" s="34">
@@ -6349,47 +6710,59 @@
         <f t="shared" si="3"/>
         <v>3.8139643699999999</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0.57209465549999994</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>3.8720946555000002</v>
+      </c>
+      <c r="L27" s="34">
         <v>355</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="M27" s="34"/>
+      <c r="N27" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>300</v>
       </c>
-      <c r="M27" t="e">
-        <f t="shared" si="5"/>
+      <c r="P27" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="34">
+      <c r="Q27" s="34">
         <v>3.8139643699999999</v>
       </c>
-      <c r="O27" s="34">
+      <c r="R27" s="34">
+        <f t="shared" si="13"/>
+        <v>648.37394289999997</v>
+      </c>
+      <c r="S27" s="34">
+        <f t="shared" si="9"/>
+        <v>660</v>
+      </c>
+      <c r="T27" s="34">
         <f t="shared" si="10"/>
-        <v>648.37394289999997</v>
-      </c>
-      <c r="P27" s="34">
-        <f t="shared" si="6"/>
-        <v>660</v>
-      </c>
-      <c r="Q27" s="34">
-        <f t="shared" si="7"/>
         <v>297</v>
       </c>
-      <c r="R27" s="34">
-        <f t="shared" si="8"/>
+      <c r="U27" s="34">
+        <f t="shared" si="11"/>
         <v>363.00000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B28" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.16145706</v>
       </c>
       <c r="C28" s="34">
@@ -6414,47 +6787,59 @@
         <f t="shared" si="3"/>
         <v>9.16145706</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>1.374218559</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>7.8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>9.1742185589999998</v>
+      </c>
+      <c r="L28" s="34">
         <v>355</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="M28" s="34"/>
+      <c r="N28" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>300</v>
       </c>
-      <c r="M28" t="e">
-        <f t="shared" si="5"/>
+      <c r="P28" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="34">
+      <c r="Q28" s="34">
         <v>9.16145706</v>
       </c>
-      <c r="O28" s="34">
+      <c r="R28" s="34">
+        <f t="shared" si="13"/>
+        <v>1557.4477002000001</v>
+      </c>
+      <c r="S28" s="34">
+        <f t="shared" si="9"/>
+        <v>1560</v>
+      </c>
+      <c r="T28" s="34">
         <f t="shared" si="10"/>
-        <v>1557.4477002000001</v>
-      </c>
-      <c r="P28" s="34">
-        <f t="shared" si="6"/>
-        <v>1560</v>
-      </c>
-      <c r="Q28" s="34">
-        <f t="shared" si="7"/>
         <v>702</v>
       </c>
-      <c r="R28" s="34">
-        <f t="shared" si="8"/>
+      <c r="U28" s="34">
+        <f t="shared" si="11"/>
         <v>858.00000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16.718635559999999</v>
       </c>
       <c r="C29" s="34">
@@ -6479,42 +6864,54 @@
         <f t="shared" si="3"/>
         <v>16.718635559999999</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>2.5077953339999999</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>14.3</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>16.807795334000001</v>
+      </c>
+      <c r="L29" s="34">
         <v>355</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="M29" s="34"/>
+      <c r="N29" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>300</v>
       </c>
-      <c r="M29" t="e">
-        <f t="shared" si="5"/>
+      <c r="P29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="34">
+      <c r="Q29" s="34">
         <v>16.718635559999999</v>
       </c>
-      <c r="O29" s="34">
+      <c r="R29" s="34">
+        <f t="shared" si="13"/>
+        <v>2842.1680451999996</v>
+      </c>
+      <c r="S29" s="34">
+        <f t="shared" si="9"/>
+        <v>2860</v>
+      </c>
+      <c r="T29" s="34">
         <f t="shared" si="10"/>
-        <v>2842.1680451999996</v>
-      </c>
-      <c r="P29" s="34">
-        <f t="shared" si="6"/>
-        <v>2860</v>
-      </c>
-      <c r="Q29" s="34">
-        <f t="shared" si="7"/>
         <v>1287</v>
       </c>
-      <c r="R29" s="34">
-        <f t="shared" si="8"/>
+      <c r="U29" s="34">
+        <f t="shared" si="11"/>
         <v>1573.0000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -6537,36 +6934,48 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="34">
         <v>355</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="33" t="e">
-        <f t="shared" si="4"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="33" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>300</v>
       </c>
-      <c r="M30" t="e">
-        <f t="shared" si="5"/>
+      <c r="P30" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34">
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P30" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="34">
-        <f t="shared" si="8"/>
+      <c r="U30" s="34">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6582,7 +6991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -6593,10 +7002,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>1</v>
@@ -6604,7 +7013,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>5.0000000000000001E-3</v>
@@ -6615,7 +7024,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>5.0000000000000001E-3</v>
@@ -6626,7 +7035,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>5.0000000000000001E-3</v>
@@ -6637,7 +7046,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>5.0000000000000001E-3</v>
@@ -6648,25 +7057,25 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -6677,13 +7086,13 @@
         <v>2.5</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -6733,42 +7142,42 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
       <c r="N1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="36">
         <v>3</v>
@@ -6813,7 +7222,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B3" s="39">
         <v>6</v>
@@ -6858,7 +7267,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" s="39">
         <v>1.5</v>
@@ -6903,7 +7312,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="42">
         <v>3</v>
@@ -6948,7 +7357,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B6" s="34">
         <v>0.3</v>
@@ -6993,7 +7402,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="34">
         <v>1.2</v>
@@ -7039,7 +7448,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="34">
         <v>0.9</v>
@@ -7085,7 +7494,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B9" s="34">
         <v>2.4</v>
@@ -7131,7 +7540,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B10" s="34">
         <v>1.2</v>
@@ -7177,7 +7586,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B11" s="34">
         <v>3.6</v>

--- a/GameData/SSTU/Parts/LanderCore/LC-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/LanderCore/LC-MassCalc.xlsx
@@ -4666,7 +4666,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
